--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/EUR_010_SwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/EUR_010_SwapQuotes.xlsx
@@ -14,9 +14,6 @@
     <sheet name="Swap3M" sheetId="18" r:id="rId5"/>
     <sheet name="Swap6M" sheetId="4" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$9</definedName>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="90">
   <si>
     <t>Currency</t>
   </si>
@@ -303,6 +300,9 @@
   </si>
   <si>
     <t>OIS</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -317,7 +317,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.0;#,##0.0"/>
     <numFmt numFmtId="169" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -996,22 +996,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1306,7 +1290,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="6" customWidth="1"/>
@@ -1318,13 +1302,13 @@
     <col min="8" max="16384" width="8" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" ht="15.75">
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="97" t="s">
         <v>73</v>
@@ -1333,14 +1317,14 @@
       <c r="D2" s="98"/>
       <c r="E2" s="99"/>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="3" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="10"/>
       <c r="C4" s="13" t="s">
@@ -1349,7 +1333,7 @@
       <c r="D4" s="14"/>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="10"/>
       <c r="C5" s="13" t="s">
@@ -1360,7 +1344,7 @@
       </c>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="10"/>
       <c r="C6" s="13" t="s">
@@ -1371,7 +1355,7 @@
       </c>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
@@ -1382,19 +1366,18 @@
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="16" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+      <c r="D8" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="10"/>
       <c r="C9" s="13" t="s">
@@ -1405,15 +1388,15 @@
       </c>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5" s="9" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:5" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" ht="12" thickBot="1"/>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="97" t="s">
         <v>71</v>
       </c>
@@ -1421,13 +1404,13 @@
       <c r="D12" s="98"/>
       <c r="E12" s="99"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="13" t="s">
         <v>0</v>
@@ -1437,7 +1420,7 @@
       </c>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
       <c r="C15" s="13" t="s">
         <v>9</v>
@@ -1447,7 +1430,7 @@
       </c>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="13" t="s">
         <v>10</v>
@@ -1457,7 +1440,7 @@
       </c>
       <c r="E16" s="15"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="13" t="s">
         <v>11</v>
@@ -1467,7 +1450,7 @@
       </c>
       <c r="E17" s="15"/>
     </row>
-    <row r="18" spans="2:5" ht="12" thickBot="1">
+    <row r="18" spans="2:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -1499,7 +1482,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="75" customWidth="1"/>
     <col min="2" max="3" width="4" style="75" bestFit="1" customWidth="1"/>
@@ -1511,7 +1494,7 @@
     <col min="9" max="16384" width="9.140625" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="70"/>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -1521,7 +1504,7 @@
       <c r="G1" s="72"/>
       <c r="H1" s="74"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
@@ -1530,17 +1513,17 @@
         <f>Currency&amp;"_010_"&amp;"OIS.xml"</f>
         <v>EUR_010_OIS.xml</v>
       </c>
-      <c r="F2" s="80">
+      <c r="F2" s="80" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(F3:F75),SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>53</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="81" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="82"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="76"/>
       <c r="B3" s="83"/>
       <c r="C3" s="83" t="s">
@@ -1563,7 +1546,7 @@
       </c>
       <c r="H3" s="82"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="76"/>
       <c r="B4" s="83"/>
       <c r="C4" s="83" t="s">
@@ -1586,7 +1569,7 @@
       </c>
       <c r="H4" s="82"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="76"/>
       <c r="B5" s="83"/>
       <c r="C5" s="83" t="s">
@@ -1609,7 +1592,7 @@
       </c>
       <c r="H5" s="82"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="76"/>
       <c r="B6" s="83"/>
       <c r="C6" s="83" t="s">
@@ -1632,7 +1615,7 @@
       </c>
       <c r="H6" s="82"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="76"/>
       <c r="B7" s="83"/>
       <c r="C7" s="83" t="s">
@@ -1655,7 +1638,7 @@
       </c>
       <c r="H7" s="82"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="76"/>
       <c r="B8" s="83"/>
       <c r="C8" s="83" t="s">
@@ -1678,7 +1661,7 @@
       </c>
       <c r="H8" s="82"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="76"/>
       <c r="B9" s="83"/>
       <c r="C9" s="83" t="s">
@@ -1701,7 +1684,7 @@
       </c>
       <c r="H9" s="82"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="76"/>
       <c r="B10" s="83"/>
       <c r="C10" s="83" t="s">
@@ -1724,7 +1707,7 @@
       </c>
       <c r="H10" s="82"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="76"/>
       <c r="B11" s="83"/>
       <c r="C11" s="83" t="s">
@@ -1747,7 +1730,7 @@
       </c>
       <c r="H11" s="82"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="76"/>
       <c r="B12" s="83"/>
       <c r="C12" s="83" t="s">
@@ -1770,7 +1753,7 @@
       </c>
       <c r="H12" s="82"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="76"/>
       <c r="B13" s="83"/>
       <c r="C13" s="83" t="s">
@@ -1793,7 +1776,7 @@
       </c>
       <c r="H13" s="82"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="76"/>
       <c r="B14" s="83"/>
       <c r="C14" s="83" t="s">
@@ -1816,7 +1799,7 @@
       </c>
       <c r="H14" s="82"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="76"/>
       <c r="B15" s="83"/>
       <c r="C15" s="83" t="s">
@@ -1839,7 +1822,7 @@
       </c>
       <c r="H15" s="82"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="76"/>
       <c r="B16" s="83"/>
       <c r="C16" s="83" t="s">
@@ -1862,7 +1845,7 @@
       </c>
       <c r="H16" s="82"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="76"/>
       <c r="B17" s="83"/>
       <c r="C17" s="83" t="s">
@@ -1885,7 +1868,7 @@
       </c>
       <c r="H17" s="82"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="76"/>
       <c r="B18" s="83"/>
       <c r="C18" s="83" t="s">
@@ -1908,7 +1891,7 @@
       </c>
       <c r="H18" s="82"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="76"/>
       <c r="B19" s="83"/>
       <c r="C19" s="83" t="s">
@@ -1931,7 +1914,7 @@
       </c>
       <c r="H19" s="82"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="76"/>
       <c r="B20" s="83"/>
       <c r="C20" s="83" t="s">
@@ -1954,7 +1937,7 @@
       </c>
       <c r="H20" s="82"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="76"/>
       <c r="B21" s="83"/>
       <c r="C21" s="83" t="s">
@@ -1977,7 +1960,7 @@
       </c>
       <c r="H21" s="82"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="76"/>
       <c r="B22" s="83"/>
       <c r="C22" s="83" t="s">
@@ -2000,7 +1983,7 @@
       </c>
       <c r="H22" s="82"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="76"/>
       <c r="B23" s="83"/>
       <c r="C23" s="83" t="s">
@@ -2023,7 +2006,7 @@
       </c>
       <c r="H23" s="82"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="76"/>
       <c r="B24" s="83"/>
       <c r="C24" s="83" t="s">
@@ -2046,7 +2029,7 @@
       </c>
       <c r="H24" s="82"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="76"/>
       <c r="B25" s="83"/>
       <c r="C25" s="83" t="s">
@@ -2069,7 +2052,7 @@
       </c>
       <c r="H25" s="82"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="76"/>
       <c r="B26" s="83"/>
       <c r="C26" s="83" t="s">
@@ -2092,7 +2075,7 @@
       </c>
       <c r="H26" s="82"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="76"/>
       <c r="B27" s="83"/>
       <c r="C27" s="83" t="s">
@@ -2115,7 +2098,7 @@
       </c>
       <c r="H27" s="82"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="76"/>
       <c r="B28" s="83"/>
       <c r="C28" s="83" t="s">
@@ -2138,7 +2121,7 @@
       </c>
       <c r="H28" s="82"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="76"/>
       <c r="B29" s="83"/>
       <c r="C29" s="83" t="s">
@@ -2161,7 +2144,7 @@
       </c>
       <c r="H29" s="82"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="76"/>
       <c r="B30" s="83"/>
       <c r="C30" s="83" t="s">
@@ -2184,7 +2167,7 @@
       </c>
       <c r="H30" s="82"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="76"/>
       <c r="B31" s="83"/>
       <c r="C31" s="83" t="s">
@@ -2207,7 +2190,7 @@
       </c>
       <c r="H31" s="82"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="76"/>
       <c r="B32" s="83"/>
       <c r="C32" s="83" t="s">
@@ -2230,7 +2213,7 @@
       </c>
       <c r="H32" s="82"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="76"/>
       <c r="B33" s="83"/>
       <c r="C33" s="83" t="s">
@@ -2253,7 +2236,7 @@
       </c>
       <c r="H33" s="82"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="76"/>
       <c r="B34" s="83"/>
       <c r="C34" s="83" t="s">
@@ -2276,7 +2259,7 @@
       </c>
       <c r="H34" s="82"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="76"/>
       <c r="B35" s="83"/>
       <c r="C35" s="83" t="s">
@@ -2299,7 +2282,7 @@
       </c>
       <c r="H35" s="82"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="76"/>
       <c r="B36" s="83"/>
       <c r="C36" s="83" t="s">
@@ -2322,7 +2305,7 @@
       </c>
       <c r="H36" s="82"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="76"/>
       <c r="B37" s="83"/>
       <c r="C37" s="83" t="s">
@@ -2345,7 +2328,7 @@
       </c>
       <c r="H37" s="82"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="76"/>
       <c r="B38" s="83"/>
       <c r="C38" s="83" t="s">
@@ -2368,7 +2351,7 @@
       </c>
       <c r="H38" s="82"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="76"/>
       <c r="B39" s="87"/>
       <c r="C39" s="87"/>
@@ -2378,7 +2361,7 @@
       <c r="G39" s="89"/>
       <c r="H39" s="82"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="76"/>
       <c r="B40" s="83" t="s">
         <v>87</v>
@@ -2404,7 +2387,7 @@
       </c>
       <c r="H40" s="82"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="76"/>
       <c r="B41" s="83" t="s">
         <v>87</v>
@@ -2430,7 +2413,7 @@
       </c>
       <c r="H41" s="82"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="76"/>
       <c r="B42" s="83" t="s">
         <v>87</v>
@@ -2456,7 +2439,7 @@
       </c>
       <c r="H42" s="82"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="76"/>
       <c r="B43" s="83" t="s">
         <v>87</v>
@@ -2482,7 +2465,7 @@
       </c>
       <c r="H43" s="82"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="76"/>
       <c r="B44" s="83" t="s">
         <v>87</v>
@@ -2508,7 +2491,7 @@
       </c>
       <c r="H44" s="82"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="76"/>
       <c r="B45" s="83" t="s">
         <v>87</v>
@@ -2534,7 +2517,7 @@
       </c>
       <c r="H45" s="82"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="76"/>
       <c r="B46" s="83" t="s">
         <v>87</v>
@@ -2560,7 +2543,7 @@
       </c>
       <c r="H46" s="82"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="76"/>
       <c r="B47" s="83" t="s">
         <v>87</v>
@@ -2586,7 +2569,7 @@
       </c>
       <c r="H47" s="82"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="76"/>
       <c r="B48" s="83" t="s">
         <v>87</v>
@@ -2612,7 +2595,7 @@
       </c>
       <c r="H48" s="82"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="76"/>
       <c r="B49" s="83" t="s">
         <v>87</v>
@@ -2638,7 +2621,7 @@
       </c>
       <c r="H49" s="82"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="76"/>
       <c r="B50" s="83" t="s">
         <v>87</v>
@@ -2664,7 +2647,7 @@
       </c>
       <c r="H50" s="82"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="76"/>
       <c r="B51" s="83" t="s">
         <v>87</v>
@@ -2690,7 +2673,7 @@
       </c>
       <c r="H51" s="82"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="76"/>
       <c r="B52" s="83" t="s">
         <v>87</v>
@@ -2716,7 +2699,7 @@
       </c>
       <c r="H52" s="82"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="76"/>
       <c r="B53" s="83" t="s">
         <v>87</v>
@@ -2742,7 +2725,7 @@
       </c>
       <c r="H53" s="82"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="76"/>
       <c r="B54" s="83" t="s">
         <v>87</v>
@@ -2768,7 +2751,7 @@
       </c>
       <c r="H54" s="82"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="76"/>
       <c r="B55" s="83" t="s">
         <v>87</v>
@@ -2794,7 +2777,7 @@
       </c>
       <c r="H55" s="82"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="76"/>
       <c r="B56" s="83" t="s">
         <v>87</v>
@@ -2820,7 +2803,7 @@
       </c>
       <c r="H56" s="82"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="76"/>
       <c r="B57" s="83" t="s">
         <v>87</v>
@@ -2846,7 +2829,7 @@
       </c>
       <c r="H57" s="82"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="76"/>
       <c r="B58" s="83" t="s">
         <v>87</v>
@@ -2872,7 +2855,7 @@
       </c>
       <c r="H58" s="82"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="76"/>
       <c r="B59" s="83" t="s">
         <v>87</v>
@@ -2898,7 +2881,7 @@
       </c>
       <c r="H59" s="82"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="76"/>
       <c r="B60" s="83" t="s">
         <v>87</v>
@@ -2924,7 +2907,7 @@
       </c>
       <c r="H60" s="82"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="76"/>
       <c r="B61" s="83" t="s">
         <v>87</v>
@@ -2950,7 +2933,7 @@
       </c>
       <c r="H61" s="82"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="76"/>
       <c r="B62" s="83" t="s">
         <v>87</v>
@@ -2976,7 +2959,7 @@
       </c>
       <c r="H62" s="82"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="76"/>
       <c r="B63" s="83" t="s">
         <v>87</v>
@@ -3002,7 +2985,7 @@
       </c>
       <c r="H63" s="82"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="76"/>
       <c r="B64" s="83" t="s">
         <v>87</v>
@@ -3028,7 +3011,7 @@
       </c>
       <c r="H64" s="82"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="76"/>
       <c r="B65" s="83" t="s">
         <v>87</v>
@@ -3054,7 +3037,7 @@
       </c>
       <c r="H65" s="82"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="76"/>
       <c r="B66" s="83" t="s">
         <v>87</v>
@@ -3080,7 +3063,7 @@
       </c>
       <c r="H66" s="82"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="76"/>
       <c r="B67" s="83" t="s">
         <v>87</v>
@@ -3106,7 +3089,7 @@
       </c>
       <c r="H67" s="82"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="76"/>
       <c r="B68" s="83" t="s">
         <v>87</v>
@@ -3132,7 +3115,7 @@
       </c>
       <c r="H68" s="82"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="76"/>
       <c r="B69" s="83" t="s">
         <v>87</v>
@@ -3158,7 +3141,7 @@
       </c>
       <c r="H69" s="82"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="76"/>
       <c r="B70" s="83" t="s">
         <v>87</v>
@@ -3184,7 +3167,7 @@
       </c>
       <c r="H70" s="82"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="76"/>
       <c r="B71" s="83" t="s">
         <v>87</v>
@@ -3210,7 +3193,7 @@
       </c>
       <c r="H71" s="82"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="76"/>
       <c r="B72" s="83" t="s">
         <v>87</v>
@@ -3236,7 +3219,7 @@
       </c>
       <c r="H72" s="82"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="76"/>
       <c r="B73" s="83" t="s">
         <v>87</v>
@@ -3262,7 +3245,7 @@
       </c>
       <c r="H73" s="82"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="76"/>
       <c r="B74" s="83" t="s">
         <v>87</v>
@@ -3288,7 +3271,7 @@
       </c>
       <c r="H74" s="82"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="76"/>
       <c r="B75" s="83" t="s">
         <v>87</v>
@@ -3314,7 +3297,7 @@
       </c>
       <c r="H75" s="82"/>
     </row>
-    <row r="76" spans="1:8" ht="14.25" thickBot="1">
+    <row r="76" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="90"/>
       <c r="B76" s="91"/>
       <c r="C76" s="91"/>
@@ -3341,7 +3324,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -3353,7 +3336,7 @@
     <col min="8" max="8" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="35"/>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -3363,7 +3346,7 @@
       <c r="G1" s="37"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="40"/>
       <c r="B2" s="29"/>
       <c r="C2" s="30"/>
@@ -3372,17 +3355,17 @@
         <f>Currency&amp;"_010_Sw"&amp;"1M.xml"</f>
         <v>EUR_010_Sw1M.xml</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="33" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F13,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>11</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="41"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="25"/>
       <c r="C3" s="21">
@@ -3405,7 +3388,7 @@
       </c>
       <c r="H3" s="41"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="27"/>
       <c r="C4" s="22">
@@ -3428,7 +3411,7 @@
       </c>
       <c r="H4" s="41"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="27"/>
       <c r="C5" s="22">
@@ -3451,7 +3434,7 @@
       </c>
       <c r="H5" s="41"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="40"/>
       <c r="B6" s="27"/>
       <c r="C6" s="22">
@@ -3474,7 +3457,7 @@
       </c>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="40"/>
       <c r="B7" s="27"/>
       <c r="C7" s="22">
@@ -3497,7 +3480,7 @@
       </c>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="40"/>
       <c r="B8" s="27"/>
       <c r="C8" s="22">
@@ -3520,7 +3503,7 @@
       </c>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
       <c r="B9" s="27"/>
       <c r="C9" s="22">
@@ -3543,7 +3526,7 @@
       </c>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="40"/>
       <c r="B10" s="27"/>
       <c r="C10" s="22">
@@ -3566,7 +3549,7 @@
       </c>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
       <c r="B11" s="27"/>
       <c r="C11" s="22">
@@ -3589,7 +3572,7 @@
       </c>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="40"/>
       <c r="B12" s="27"/>
       <c r="C12" s="22">
@@ -3612,7 +3595,7 @@
       </c>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="40"/>
       <c r="B13" s="27"/>
       <c r="C13" s="22">
@@ -3635,7 +3618,7 @@
       </c>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="1:8" ht="13.5" thickBot="1">
+    <row r="14" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
@@ -3662,7 +3645,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -3674,7 +3657,7 @@
     <col min="8" max="8" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="35"/>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -3684,7 +3667,7 @@
       <c r="G1" s="37"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="40"/>
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
@@ -3693,17 +3676,17 @@
         <f>Currency&amp;"_010_Sw"&amp;"IMM.xml"</f>
         <v>EUR_010_SwIMM.xml</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="33" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>7</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="41"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="46"/>
       <c r="C3" s="4" t="s">
@@ -3726,7 +3709,7 @@
       </c>
       <c r="H3" s="41"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="47"/>
       <c r="C4" s="1" t="s">
@@ -3749,7 +3732,7 @@
       </c>
       <c r="H4" s="41"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="47"/>
       <c r="C5" s="1" t="s">
@@ -3772,7 +3755,7 @@
       </c>
       <c r="H5" s="41"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="40"/>
       <c r="B6" s="47"/>
       <c r="C6" s="1" t="s">
@@ -3795,7 +3778,7 @@
       </c>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="40"/>
       <c r="B7" s="47"/>
       <c r="C7" s="1" t="s">
@@ -3818,7 +3801,7 @@
       </c>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="40"/>
       <c r="B8" s="47"/>
       <c r="C8" s="1" t="s">
@@ -3841,7 +3824,7 @@
       </c>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
       <c r="B9" s="47"/>
       <c r="C9" s="1" t="s">
@@ -3864,7 +3847,7 @@
       </c>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="1:8" ht="13.5" thickBot="1">
+    <row r="10" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
@@ -3891,7 +3874,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -3906,7 +3889,7 @@
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" thickBot="1">
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35"/>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -3916,7 +3899,7 @@
       <c r="G1" s="37"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="40"/>
       <c r="B2" s="31" t="s">
         <v>72</v>
@@ -3927,12 +3910,12 @@
         <f>Currency&amp;"_010_Sw"&amp;$C$3&amp;$D$3&amp;".xml"</f>
         <v>EUR_010_SwAB3E.xml</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="33" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F39,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>37</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="41"/>
@@ -3946,7 +3929,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="25" t="s">
         <v>18</v>
@@ -3982,7 +3965,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="27" t="s">
         <v>19</v>
@@ -4016,7 +3999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="27" t="s">
         <v>20</v>
@@ -4050,7 +4033,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="40"/>
       <c r="B6" s="27" t="s">
         <v>21</v>
@@ -4084,7 +4067,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="13.5" thickBot="1">
+    <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40"/>
       <c r="B7" s="27" t="s">
         <v>22</v>
@@ -4118,7 +4101,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="40"/>
       <c r="B8" s="27" t="s">
         <v>23</v>
@@ -4143,7 +4126,7 @@
       </c>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
       <c r="B9" s="27" t="s">
         <v>24</v>
@@ -4168,7 +4151,7 @@
       </c>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="40"/>
       <c r="B10" s="27" t="s">
         <v>25</v>
@@ -4193,7 +4176,7 @@
       </c>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
       <c r="B11" s="27" t="s">
         <v>26</v>
@@ -4218,7 +4201,7 @@
       </c>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="40"/>
       <c r="B12" s="27" t="s">
         <v>27</v>
@@ -4243,7 +4226,7 @@
       </c>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="40"/>
       <c r="B13" s="27" t="s">
         <v>28</v>
@@ -4268,7 +4251,7 @@
       </c>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="40"/>
       <c r="B14" s="27" t="s">
         <v>29</v>
@@ -4293,7 +4276,7 @@
       </c>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="27" t="s">
         <v>30</v>
@@ -4318,7 +4301,7 @@
       </c>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="27" t="s">
         <v>31</v>
@@ -4343,7 +4326,7 @@
       </c>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="40"/>
       <c r="B17" s="27" t="s">
         <v>32</v>
@@ -4368,7 +4351,7 @@
       </c>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="40"/>
       <c r="B18" s="27" t="s">
         <v>33</v>
@@ -4393,7 +4376,7 @@
       </c>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40"/>
       <c r="B19" s="27" t="s">
         <v>34</v>
@@ -4418,7 +4401,7 @@
       </c>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="40"/>
       <c r="B20" s="27" t="s">
         <v>35</v>
@@ -4443,7 +4426,7 @@
       </c>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="40"/>
       <c r="B21" s="27" t="s">
         <v>36</v>
@@ -4468,7 +4451,7 @@
       </c>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="40"/>
       <c r="B22" s="27" t="s">
         <v>37</v>
@@ -4493,7 +4476,7 @@
       </c>
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="40"/>
       <c r="B23" s="27" t="s">
         <v>38</v>
@@ -4518,7 +4501,7 @@
       </c>
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="40"/>
       <c r="B24" s="27" t="s">
         <v>39</v>
@@ -4543,7 +4526,7 @@
       </c>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="40"/>
       <c r="B25" s="27" t="s">
         <v>40</v>
@@ -4568,7 +4551,7 @@
       </c>
       <c r="H25" s="41"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="40"/>
       <c r="B26" s="27" t="s">
         <v>41</v>
@@ -4593,7 +4576,7 @@
       </c>
       <c r="H26" s="41"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="40"/>
       <c r="B27" s="27" t="s">
         <v>42</v>
@@ -4618,7 +4601,7 @@
       </c>
       <c r="H27" s="41"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="40"/>
       <c r="B28" s="27" t="s">
         <v>43</v>
@@ -4643,7 +4626,7 @@
       </c>
       <c r="H28" s="41"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="40"/>
       <c r="B29" s="27" t="s">
         <v>44</v>
@@ -4668,7 +4651,7 @@
       </c>
       <c r="H29" s="41"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="27" t="s">
         <v>45</v>
@@ -4693,7 +4676,7 @@
       </c>
       <c r="H30" s="41"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="40"/>
       <c r="B31" s="27" t="s">
         <v>46</v>
@@ -4718,7 +4701,7 @@
       </c>
       <c r="H31" s="41"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="40"/>
       <c r="B32" s="27" t="s">
         <v>47</v>
@@ -4743,7 +4726,7 @@
       </c>
       <c r="H32" s="41"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="40"/>
       <c r="B33" s="27" t="s">
         <v>48</v>
@@ -4768,7 +4751,7 @@
       </c>
       <c r="H33" s="41"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="40"/>
       <c r="B34" s="27" t="s">
         <v>49</v>
@@ -4793,7 +4776,7 @@
       </c>
       <c r="H34" s="41"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="40"/>
       <c r="B35" s="27" t="s">
         <v>50</v>
@@ -4818,7 +4801,7 @@
       </c>
       <c r="H35" s="41"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="40"/>
       <c r="B36" s="27" t="s">
         <v>51</v>
@@ -4843,7 +4826,7 @@
       </c>
       <c r="H36" s="41"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="40"/>
       <c r="B37" s="27" t="s">
         <v>52</v>
@@ -4868,7 +4851,7 @@
       </c>
       <c r="H37" s="41"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="40"/>
       <c r="B38" s="27" t="s">
         <v>53</v>
@@ -4893,7 +4876,7 @@
       </c>
       <c r="H38" s="41"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="40"/>
       <c r="B39" s="27" t="s">
         <v>54</v>
@@ -4918,7 +4901,7 @@
       </c>
       <c r="H39" s="41"/>
     </row>
-    <row r="40" spans="1:8" ht="13.5" thickBot="1">
+    <row r="40" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="42"/>
       <c r="B40" s="43"/>
       <c r="C40" s="43"/>
@@ -4945,7 +4928,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="52" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="53" bestFit="1" customWidth="1"/>
@@ -4962,7 +4945,7 @@
     <col min="13" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12" thickBot="1">
+    <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35"/>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -4972,7 +4955,7 @@
       <c r="G1" s="50"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="40"/>
       <c r="B2" s="31" t="s">
         <v>72</v>
@@ -4983,12 +4966,12 @@
         <f>Currency&amp;"_010_Sw"&amp;$C$3&amp;$D$3&amp;".xml"</f>
         <v>EUR_010_SwAB6E.xml</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="33" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F39,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>37</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="41"/>
@@ -5002,7 +4985,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="57" t="s">
         <v>18</v>
@@ -5038,7 +5021,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="58" t="s">
         <v>19</v>
@@ -5072,7 +5055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="58" t="s">
         <v>20</v>
@@ -5106,7 +5089,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="40"/>
       <c r="B6" s="58" t="s">
         <v>21</v>
@@ -5140,7 +5123,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12" thickBot="1">
+    <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40"/>
       <c r="B7" s="57" t="s">
         <v>22</v>
@@ -5174,7 +5157,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="40"/>
       <c r="B8" s="57" t="s">
         <v>23</v>
@@ -5199,7 +5182,7 @@
       </c>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
       <c r="B9" s="57" t="s">
         <v>24</v>
@@ -5224,7 +5207,7 @@
       </c>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="40"/>
       <c r="B10" s="57" t="s">
         <v>25</v>
@@ -5249,7 +5232,7 @@
       </c>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
       <c r="B11" s="57" t="s">
         <v>26</v>
@@ -5274,7 +5257,7 @@
       </c>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="40"/>
       <c r="B12" s="57" t="s">
         <v>27</v>
@@ -5299,7 +5282,7 @@
       </c>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="40"/>
       <c r="B13" s="57" t="s">
         <v>28</v>
@@ -5324,7 +5307,7 @@
       </c>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="40"/>
       <c r="B14" s="57" t="s">
         <v>29</v>
@@ -5349,7 +5332,7 @@
       </c>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="57" t="s">
         <v>30</v>
@@ -5374,7 +5357,7 @@
       </c>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="57" t="s">
         <v>31</v>
@@ -5399,7 +5382,7 @@
       </c>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="40"/>
       <c r="B17" s="57" t="s">
         <v>32</v>
@@ -5424,7 +5407,7 @@
       </c>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="40"/>
       <c r="B18" s="57" t="s">
         <v>33</v>
@@ -5449,7 +5432,7 @@
       </c>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40"/>
       <c r="B19" s="57" t="s">
         <v>34</v>
@@ -5474,7 +5457,7 @@
       </c>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="40"/>
       <c r="B20" s="57" t="s">
         <v>35</v>
@@ -5499,7 +5482,7 @@
       </c>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="40"/>
       <c r="B21" s="57" t="s">
         <v>36</v>
@@ -5524,7 +5507,7 @@
       </c>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="40"/>
       <c r="B22" s="57" t="s">
         <v>37</v>
@@ -5549,7 +5532,7 @@
       </c>
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="40"/>
       <c r="B23" s="57" t="s">
         <v>38</v>
@@ -5574,7 +5557,7 @@
       </c>
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="40"/>
       <c r="B24" s="57" t="s">
         <v>39</v>
@@ -5599,7 +5582,7 @@
       </c>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="40"/>
       <c r="B25" s="57" t="s">
         <v>40</v>
@@ -5624,7 +5607,7 @@
       </c>
       <c r="H25" s="41"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="40"/>
       <c r="B26" s="57" t="s">
         <v>41</v>
@@ -5649,7 +5632,7 @@
       </c>
       <c r="H26" s="41"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="40"/>
       <c r="B27" s="57" t="s">
         <v>42</v>
@@ -5674,7 +5657,7 @@
       </c>
       <c r="H27" s="41"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="40"/>
       <c r="B28" s="57" t="s">
         <v>43</v>
@@ -5699,7 +5682,7 @@
       </c>
       <c r="H28" s="41"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="40"/>
       <c r="B29" s="57" t="s">
         <v>44</v>
@@ -5724,7 +5707,7 @@
       </c>
       <c r="H29" s="41"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="57" t="s">
         <v>45</v>
@@ -5749,7 +5732,7 @@
       </c>
       <c r="H30" s="41"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="40"/>
       <c r="B31" s="57" t="s">
         <v>46</v>
@@ -5774,7 +5757,7 @@
       </c>
       <c r="H31" s="41"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="40"/>
       <c r="B32" s="57" t="s">
         <v>47</v>
@@ -5799,7 +5782,7 @@
       </c>
       <c r="H32" s="41"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="40"/>
       <c r="B33" s="57" t="s">
         <v>48</v>
@@ -5824,7 +5807,7 @@
       </c>
       <c r="H33" s="41"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="40"/>
       <c r="B34" s="57" t="s">
         <v>49</v>
@@ -5849,7 +5832,7 @@
       </c>
       <c r="H34" s="41"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="40"/>
       <c r="B35" s="57" t="s">
         <v>50</v>
@@ -5874,7 +5857,7 @@
       </c>
       <c r="H35" s="41"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="40"/>
       <c r="B36" s="57" t="s">
         <v>51</v>
@@ -5899,7 +5882,7 @@
       </c>
       <c r="H36" s="41"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="40"/>
       <c r="B37" s="57" t="s">
         <v>52</v>
@@ -5924,7 +5907,7 @@
       </c>
       <c r="H37" s="41"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="40"/>
       <c r="B38" s="57" t="s">
         <v>53</v>
@@ -5949,7 +5932,7 @@
       </c>
       <c r="H38" s="41"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="40"/>
       <c r="B39" s="57" t="s">
         <v>54</v>
@@ -5974,7 +5957,7 @@
       </c>
       <c r="H39" s="41"/>
     </row>
-    <row r="40" spans="1:8" ht="12" thickBot="1">
+    <row r="40" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55"/>
       <c r="B40" s="56"/>
       <c r="C40" s="56"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/EUR_010_SwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/EUR_010_SwapQuotes.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="89">
   <si>
     <t>Currency</t>
   </si>
@@ -300,9 +300,6 @@
   </si>
   <si>
     <t>OIS</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1372,8 +1369,9 @@
       <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>89</v>
+      <c r="D8" s="16" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="15"/>
     </row>
@@ -1514,12 +1512,12 @@
         <v>EUR_010_OIS.xml</v>
       </c>
       <c r="F2" s="80" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(F3:F75),SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="81" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(F3:F75),SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="81" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="82"/>
     </row>
@@ -2823,9 +2821,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B57&amp;$C57&amp;$D57&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G57" s="85" t="str">
+      <c r="G57" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F57)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H57" s="82"/>
     </row>
@@ -2849,9 +2847,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B58&amp;$C58&amp;$D58&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="85" t="str">
+      <c r="G58" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F58)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H58" s="82"/>
     </row>
@@ -2875,9 +2873,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B59&amp;$C59&amp;$D59&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="85" t="str">
+      <c r="G59" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F59)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H59" s="82"/>
     </row>
@@ -2901,9 +2899,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B60&amp;$C60&amp;$D60&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G60" s="85" t="str">
+      <c r="G60" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F60)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H60" s="82"/>
     </row>
@@ -2927,9 +2925,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B61&amp;$C61&amp;$D61&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G61" s="85" t="str">
+      <c r="G61" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F61)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H61" s="82"/>
     </row>
@@ -2953,9 +2951,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B62&amp;$C62&amp;$D62&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G62" s="85" t="str">
+      <c r="G62" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F62)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H62" s="82"/>
     </row>
@@ -2979,9 +2977,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B63&amp;$C63&amp;$D63&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G63" s="85" t="str">
+      <c r="G63" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F63)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H63" s="82"/>
     </row>
@@ -3005,9 +3003,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B64&amp;$C64&amp;$D64&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G64" s="85" t="str">
+      <c r="G64" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F64)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H64" s="82"/>
     </row>
@@ -3031,9 +3029,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B65&amp;$C65&amp;$D65&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G65" s="85" t="str">
+      <c r="G65" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F65)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H65" s="82"/>
     </row>
@@ -3057,9 +3055,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B66&amp;$C66&amp;$D66&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G66" s="85" t="str">
+      <c r="G66" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F66)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H66" s="82"/>
     </row>
@@ -3083,9 +3081,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B67&amp;$C67&amp;$D67&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G67" s="85" t="str">
+      <c r="G67" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F67)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H67" s="82"/>
     </row>
@@ -3109,9 +3107,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B68&amp;$C68&amp;$D68&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G68" s="85" t="str">
+      <c r="G68" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F68)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H68" s="82"/>
     </row>
@@ -3135,9 +3133,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B69&amp;$C69&amp;$D69&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G69" s="85" t="str">
+      <c r="G69" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F69)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H69" s="82"/>
     </row>
@@ -3161,9 +3159,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B70&amp;$C70&amp;$D70&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G70" s="85" t="str">
+      <c r="G70" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F70)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H70" s="82"/>
     </row>
@@ -3187,9 +3185,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B71&amp;$C71&amp;$D71&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G71" s="85" t="str">
+      <c r="G71" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F71)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H71" s="82"/>
     </row>
@@ -3213,9 +3211,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B72&amp;$C72&amp;$D72&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G72" s="85" t="str">
+      <c r="G72" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F72)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H72" s="82"/>
     </row>
@@ -3239,9 +3237,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B73&amp;$C73&amp;$D73&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G73" s="85" t="str">
+      <c r="G73" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F73)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H73" s="82"/>
     </row>
@@ -3265,9 +3263,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B74&amp;$C74&amp;$D74&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G74" s="85" t="str">
+      <c r="G74" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F74)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H74" s="82"/>
     </row>
@@ -3291,9 +3289,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B75&amp;$C75&amp;$D75&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G75" s="85" t="str">
+      <c r="G75" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F75)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H75" s="82"/>
     </row>
@@ -3356,12 +3354,12 @@
         <v>EUR_010_Sw1M.xml</v>
       </c>
       <c r="F2" s="33" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F13,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F13,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="41"/>
     </row>
@@ -3677,12 +3675,12 @@
         <v>EUR_010_SwIMM.xml</v>
       </c>
       <c r="F2" s="33" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="41"/>
     </row>
@@ -3911,12 +3909,12 @@
         <v>EUR_010_SwAB3E.xml</v>
       </c>
       <c r="F2" s="33" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F39,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F39,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="41"/>
       <c r="J2" s="59" t="s">
@@ -4967,12 +4965,12 @@
         <v>EUR_010_SwAB6E.xml</v>
       </c>
       <c r="F2" s="33" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F39,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F39,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="41"/>
       <c r="J2" s="59" t="s">
